--- a/public/unupload_report/manufacturer_unuploaded_data_report.xlsx
+++ b/public/unupload_report/manufacturer_unuploaded_data_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Sr.</t>
   </si>
@@ -112,15 +112,72 @@
     <t>Authorized_Representative_Official_Email_ID</t>
   </si>
   <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>28745785</t>
+  </si>
+  <si>
+    <t>125656</t>
+  </si>
+  <si>
+    <t>545555</t>
+  </si>
+  <si>
+    <t>https://www.navana.com/</t>
+  </si>
+  <si>
+    <t>Gulshan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Banani</t>
+  </si>
+  <si>
+    <t>01756456784</t>
+  </si>
+  <si>
+    <t>iffff@navana.com</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>1245784523123</t>
+  </si>
+  <si>
+    <t>Project Executive</t>
+  </si>
+  <si>
+    <t>01678904325</t>
+  </si>
+  <si>
+    <t>xyz@navana.com</t>
+  </si>
+  <si>
     <t>Apsis Solutions LTD(1).</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>369369369</t>
   </si>
   <si>
@@ -131,12 +188,6 @@
   </si>
   <si>
     <t>http://google.com</t>
-  </si>
-  <si>
-    <t>Banani</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
   </si>
   <si>
     <t>DHAKA</t>
@@ -240,7 +291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -379,7 +430,7 @@
         <v>40</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1219</v>
@@ -391,61 +442,61 @@
         <v>40</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -453,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>34</v>
@@ -462,91 +513,91 @@
         <v>35</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AC3" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -554,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>34</v>
@@ -563,91 +614,91 @@
         <v>35</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -655,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>34</v>
@@ -664,91 +715,91 @@
         <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="V5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="0" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AC5" s="0" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="0" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="0" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="AG5" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -756,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>34</v>
@@ -765,91 +816,1000 @@
         <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1219</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="S6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>1219</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="W6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="0" t="s">
+      <c r="T8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="L9" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG9" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="L10" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="0" t="s">
+      <c r="U10" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="0" t="s">
+      <c r="AA10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AB10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="0" t="s">
+      <c r="AC10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="AF6" s="0" t="s">
+      <c r="AE10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="0" t="s">
+      <c r="U11" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="0" t="s">
         <v>51</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
